--- a/files/00-Datos globales de la entrega.xlsx
+++ b/files/00-Datos globales de la entrega.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Partes!$A$3:$S$158</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Partes!$A$3:$S$158</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Partes!$A$3:$S$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Partes!$A$3:$S$158</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -439,7 +440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1474">
   <si>
     <t xml:space="preserve">Instrucciones</t>
   </si>
@@ -2016,6 +2017,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nombre de la organizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lol</t>
   </si>
   <si>
     <t xml:space="preserve">Datos de procesos relacionados</t>
@@ -5855,7 +5859,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L:P A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5986,8 +5990,8 @@
   </sheetPr>
   <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="L:P D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11710,7 +11714,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="true" showErrorMessage="false" showInputMessage="false" sqref="I7:I158 S7:S158" type="custom">
-      <formula1>isurl(I7)</formula1>
+      <formula1>iSURL(I7)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11777,7 +11781,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="L:P G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11878,8 +11882,12 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="55" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="53"/>
@@ -11954,21 +11962,21 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" prompt="Enter a release ID from the '0. Releases' sheet" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B20" type="list">
-      <formula1>'0. releases &gt;&gt;'!$b$6:$b$106</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D7:D20" type="list">
       <formula1>Partes!$D$7:$D$167</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Enter a release ID from the '0. Releases' sheet" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B20" type="list">
+      <formula1>'0. releases &gt;&gt;'!$b$6:$b$106</formula1>
+      <formula2>h</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" prompt="Select an OCID from the '0. Releases' sheet" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="A7:A20" type="list">
-      <formula1>'0. releases &gt;&gt;'!$a$6:$a$106</formula1>
+      <formula1>'0. releases &gt;&gt;'!$a$6:$A$1TT</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C7:C20" type="list">
       <formula1>Partes!$C$7:$C$167</formula1>
-      <formula2>0</formula2>
+      <formula2>4</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11991,7 +11999,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L:P A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12006,7 +12014,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -12050,22 +12058,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12076,22 +12084,22 @@
         <v>520</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12100,11 +12108,11 @@
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
@@ -12121,13 +12129,13 @@
         <v>56</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>59</v>
@@ -12322,13 +12330,13 @@
     <tabColor rgb="FF434343"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="L:P"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="26.59"/>
@@ -12345,7 +12353,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -12381,7 +12389,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I2" s="47" t="s">
         <v>10</v>
@@ -12407,25 +12415,25 @@
         <v>16</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I3" s="72" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12436,31 +12444,31 @@
         <v>520</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>524</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12469,11 +12477,11 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
@@ -12490,13 +12498,13 @@
         <v>55</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>523</v>
@@ -12505,16 +12513,16 @@
         <v>524</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12548,13 +12556,25 @@
       <c r="B9" s="53"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="E9" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="53"/>
@@ -12691,12 +12711,12 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:K5"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="8">
     <dataValidation allowBlank="true" operator="between" prompt="Enter a release ID from the '0. Releases' sheet" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B18" type="list">
       <formula1>'0. releases &gt;&gt;'!$b$6:$b$106</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I7:I18" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I7:I8 I10:I18" type="list">
       <formula1>'listas-desplegables'!$K$2:$K$1000</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12704,7 +12724,7 @@
       <formula1>Partes!$D$7:$D$167</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="true" showErrorMessage="false" showInputMessage="false" sqref="H7:H18" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="true" showErrorMessage="false" showInputMessage="false" sqref="H7:H8 H10:H18" type="decimal">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -12714,6 +12734,14 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C7:C18" type="list">
       <formula1>Partes!$C$7:$C$167</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F9" type="list">
+      <formula1>'listas-desplegables'!$I$2:$I$1000</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="true" showErrorMessage="false" showInputMessage="false" sqref="J9" type="custom">
+      <formula1>iSURL(I7)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12737,7 +12765,7 @@
   <dimension ref="A1:AL220"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L:P A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12761,762 +12789,762 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="82" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E1" s="82" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I1" s="82" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K1" s="84" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L1" s="82" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M1" s="84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N1" s="84" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P1" s="84" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q1" s="82" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R1" s="82" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S1" s="82" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T1" s="82" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U1" s="82" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V1" s="84" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W1" s="84" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="X1" s="84" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Y1" s="82" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Z1" s="82" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AA1" s="82" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AB1" s="84" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AC1" s="84" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AD1" s="84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="84" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="84" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="84" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AH1" s="82" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AI1" s="82" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AJ1" s="84" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AK1" s="86" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL1" s="86" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="87" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F2" s="88" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G2" s="88" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H2" s="89" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I2" s="90" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K2" s="89" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L2" s="90" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M2" s="89" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N2" s="89" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O2" s="83" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P2" s="89" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q2" s="91" t="s">
         <v>54</v>
       </c>
       <c r="R2" s="87" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="S2" s="87" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T2" s="83" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="U2" s="87" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="V2" s="89" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="W2" s="89" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="X2" s="89" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Y2" s="87" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Z2" s="87" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AA2" s="83"/>
       <c r="AB2" s="89" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AC2" s="89" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AD2" s="89" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AE2" s="89" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF2" s="89" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG2" s="89" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AH2" s="87" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AI2" s="92" t="n">
         <v>28</v>
       </c>
       <c r="AJ2" s="89" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AK2" s="90" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL2" s="90" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="87" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="83" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H3" s="89" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I3" s="90" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J3" s="90" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K3" s="89" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L3" s="90" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M3" s="89" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N3" s="89" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O3" s="93" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P3" s="94" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Q3" s="87"/>
       <c r="R3" s="87" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T3" s="83" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="U3" s="87" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="V3" s="89" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="W3" s="89" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="X3" s="89" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Y3" s="87" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Z3" s="87" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AA3" s="83"/>
       <c r="AB3" s="89" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AC3" s="89" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AD3" s="89" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AE3" s="89" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF3" s="89" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG3" s="89" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AH3" s="87" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AI3" s="38" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AJ3" s="89" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AK3" s="83" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL3" s="95" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="87" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B4" s="83"/>
       <c r="C4" s="83" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F4" s="83" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J4" s="90" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K4" s="89" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L4" s="90" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M4" s="89" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N4" s="89" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O4" s="83" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q4" s="87"/>
       <c r="R4" s="87" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T4" s="83" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="U4" s="87" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="V4" s="89"/>
       <c r="W4" s="89" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="X4" s="89" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y4" s="87" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z4" s="87" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AA4" s="83"/>
       <c r="AB4" s="89" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AC4" s="89" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AD4" s="89" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE4" s="89" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AF4" s="89"/>
       <c r="AG4" s="89" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AH4" s="38"/>
       <c r="AI4" s="38" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AJ4" s="89" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AK4" s="38" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AL4" s="38" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="87" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="83" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H5" s="89" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J5" s="90" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K5" s="89" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L5" s="90" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M5" s="89" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N5" s="96" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O5" s="83"/>
       <c r="P5" s="89" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Q5" s="87"/>
       <c r="R5" s="87" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="S5" s="87" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="T5" s="83" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="U5" s="87" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="V5" s="89"/>
       <c r="W5" s="89"/>
       <c r="X5" s="89" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Y5" s="87" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z5" s="87" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AA5" s="83"/>
       <c r="AB5" s="89" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AC5" s="89" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AD5" s="96" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AE5" s="89"/>
       <c r="AF5" s="89"/>
       <c r="AG5" s="89" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AH5" s="38"/>
       <c r="AI5" s="38" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AJ5" s="89" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AK5" s="38" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AL5" s="38" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="87" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B6" s="83"/>
       <c r="C6" s="83" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="I6" s="83"/>
       <c r="J6" s="90" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L6" s="90" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M6" s="89" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N6" s="89" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O6" s="83"/>
       <c r="P6" s="89"/>
       <c r="Q6" s="87"/>
       <c r="R6" s="87" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="S6" s="87" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T6" s="83"/>
       <c r="U6" s="87" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="V6" s="89"/>
       <c r="W6" s="89"/>
       <c r="X6" s="96" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Y6" s="83"/>
       <c r="Z6" s="83"/>
       <c r="AA6" s="83"/>
       <c r="AB6" s="89" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AC6" s="89" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AD6" s="89" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AE6" s="89"/>
       <c r="AF6" s="89"/>
       <c r="AG6" s="89" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AH6" s="38"/>
       <c r="AI6" s="38" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AJ6" s="96" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="87" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B7" s="83"/>
       <c r="C7" s="83" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I7" s="83"/>
       <c r="J7" s="90" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="K7" s="89" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L7" s="90" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M7" s="89"/>
       <c r="N7" s="89" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="O7" s="83"/>
       <c r="P7" s="89"/>
       <c r="Q7" s="87"/>
       <c r="R7" s="87" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="S7" s="87" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T7" s="83"/>
       <c r="U7" s="87" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="V7" s="89"/>
       <c r="W7" s="89"/>
       <c r="X7" s="96" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Y7" s="83"/>
       <c r="Z7" s="83"/>
       <c r="AA7" s="83"/>
       <c r="AB7" s="89" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AC7" s="89"/>
       <c r="AD7" s="89" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AE7" s="89"/>
       <c r="AF7" s="89"/>
       <c r="AG7" s="89"/>
       <c r="AH7" s="38"/>
       <c r="AI7" s="38" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AJ7" s="96" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="87" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B8" s="83"/>
       <c r="C8" s="83" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H8" s="96" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="I8" s="83"/>
       <c r="J8" s="90" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L8" s="90" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M8" s="89"/>
       <c r="N8" s="89" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O8" s="83"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="87"/>
       <c r="R8" s="87" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="S8" s="87" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="T8" s="83"/>
       <c r="U8" s="87" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="V8" s="89"/>
       <c r="W8" s="89"/>
       <c r="X8" s="96" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Y8" s="83"/>
       <c r="Z8" s="83"/>
@@ -13524,66 +13552,66 @@
       <c r="AB8" s="89"/>
       <c r="AC8" s="89"/>
       <c r="AD8" s="96" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AE8" s="89"/>
       <c r="AF8" s="89"/>
       <c r="AG8" s="89"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="38" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AJ8" s="89" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AK8" s="38"/>
       <c r="AL8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="87" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B9" s="83"/>
       <c r="C9" s="83" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G9" s="83"/>
       <c r="H9" s="96" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I9" s="83"/>
       <c r="J9" s="90" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="K9" s="89" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L9" s="90" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M9" s="89"/>
       <c r="N9" s="96" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O9" s="83"/>
       <c r="P9" s="89"/>
       <c r="Q9" s="83"/>
       <c r="R9" s="83" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="S9" s="83"/>
       <c r="T9" s="83"/>
       <c r="U9" s="87" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="V9" s="89"/>
       <c r="W9" s="89"/>
@@ -13594,55 +13622,55 @@
       <c r="AB9" s="89"/>
       <c r="AC9" s="89"/>
       <c r="AD9" s="89" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AE9" s="89"/>
       <c r="AF9" s="89"/>
       <c r="AG9" s="89"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AJ9" s="89" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AK9" s="38"/>
       <c r="AL9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="87" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B10" s="83"/>
       <c r="C10" s="83" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G10" s="83"/>
       <c r="H10" s="89" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I10" s="83"/>
       <c r="J10" s="90" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K10" s="89" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L10" s="90" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M10" s="89"/>
       <c r="N10" s="96" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O10" s="83"/>
       <c r="P10" s="96"/>
@@ -13660,51 +13688,51 @@
       <c r="AB10" s="89"/>
       <c r="AC10" s="89"/>
       <c r="AD10" s="89" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AE10" s="89"/>
       <c r="AF10" s="89"/>
       <c r="AG10" s="89"/>
       <c r="AH10" s="38"/>
       <c r="AI10" s="38" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AJ10" s="96" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="87" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B11" s="83"/>
       <c r="C11" s="83" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G11" s="83"/>
       <c r="H11" s="97"/>
       <c r="I11" s="83"/>
       <c r="J11" s="90"/>
       <c r="K11" s="97" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L11" s="90" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M11" s="97"/>
       <c r="N11" s="97" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="O11" s="83"/>
       <c r="P11" s="97"/>
@@ -13722,51 +13750,51 @@
       <c r="AB11" s="97"/>
       <c r="AC11" s="97"/>
       <c r="AD11" s="97" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AE11" s="97"/>
       <c r="AF11" s="97"/>
       <c r="AG11" s="97"/>
       <c r="AH11" s="38"/>
       <c r="AI11" s="38" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AJ11" s="97" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="87" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B12" s="83"/>
       <c r="C12" s="83" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G12" s="83"/>
       <c r="H12" s="97"/>
       <c r="I12" s="83"/>
       <c r="J12" s="90"/>
       <c r="K12" s="97" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L12" s="90" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M12" s="97"/>
       <c r="N12" s="98" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="O12" s="83"/>
       <c r="P12" s="97"/>
@@ -13784,37 +13812,37 @@
       <c r="AB12" s="97"/>
       <c r="AC12" s="97"/>
       <c r="AD12" s="98" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AE12" s="97"/>
       <c r="AF12" s="97"/>
       <c r="AG12" s="97"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AJ12" s="97" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="87" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B13" s="83"/>
       <c r="C13" s="83" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G13" s="83"/>
       <c r="H13" s="97"/>
@@ -13822,11 +13850,11 @@
       <c r="J13" s="83"/>
       <c r="K13" s="97"/>
       <c r="L13" s="90" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M13" s="97"/>
       <c r="N13" s="98" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O13" s="83"/>
       <c r="P13" s="98"/>
@@ -13844,37 +13872,37 @@
       <c r="AB13" s="97"/>
       <c r="AC13" s="97"/>
       <c r="AD13" s="97" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AE13" s="97"/>
       <c r="AF13" s="97"/>
       <c r="AG13" s="97"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AJ13" s="98" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AK13" s="38"/>
       <c r="AL13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="87" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B14" s="83"/>
       <c r="C14" s="83" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G14" s="83"/>
       <c r="H14" s="97"/>
@@ -13882,7 +13910,7 @@
       <c r="J14" s="83"/>
       <c r="K14" s="97"/>
       <c r="L14" s="90" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M14" s="97"/>
       <c r="N14" s="97"/>
@@ -13902,37 +13930,37 @@
       <c r="AB14" s="97"/>
       <c r="AC14" s="97"/>
       <c r="AD14" s="99" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AE14" s="97"/>
       <c r="AF14" s="97"/>
       <c r="AG14" s="97"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AJ14" s="98" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="87" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B15" s="83"/>
       <c r="C15" s="83" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G15" s="83"/>
       <c r="H15" s="97"/>
@@ -13940,7 +13968,7 @@
       <c r="J15" s="83"/>
       <c r="K15" s="97"/>
       <c r="L15" s="90" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M15" s="97"/>
       <c r="N15" s="97"/>
@@ -13960,37 +13988,37 @@
       <c r="AB15" s="97"/>
       <c r="AC15" s="97"/>
       <c r="AD15" s="97" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AE15" s="97"/>
       <c r="AF15" s="97"/>
       <c r="AG15" s="97"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AJ15" s="97" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="87" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B16" s="83"/>
       <c r="C16" s="83" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E16" s="83" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F16" s="83" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G16" s="83"/>
       <c r="H16" s="97"/>
@@ -13998,7 +14026,7 @@
       <c r="J16" s="83"/>
       <c r="K16" s="97"/>
       <c r="L16" s="90" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M16" s="97"/>
       <c r="N16" s="97"/>
@@ -14023,30 +14051,30 @@
       <c r="AG16" s="97"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AJ16" s="97" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="87" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B17" s="83"/>
       <c r="C17" s="83" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G17" s="83"/>
       <c r="H17" s="97"/>
@@ -14054,7 +14082,7 @@
       <c r="J17" s="83"/>
       <c r="K17" s="97"/>
       <c r="L17" s="90" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M17" s="97"/>
       <c r="N17" s="97"/>
@@ -14087,16 +14115,16 @@
       <c r="A18" s="83"/>
       <c r="B18" s="83"/>
       <c r="C18" s="83" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G18" s="83"/>
       <c r="H18" s="97"/>
@@ -14104,7 +14132,7 @@
       <c r="J18" s="83"/>
       <c r="K18" s="97"/>
       <c r="L18" s="90" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M18" s="97"/>
       <c r="N18" s="97"/>
@@ -14137,16 +14165,16 @@
       <c r="A19" s="83"/>
       <c r="B19" s="83"/>
       <c r="C19" s="83" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G19" s="83"/>
       <c r="H19" s="97"/>
@@ -14154,7 +14182,7 @@
       <c r="J19" s="83"/>
       <c r="K19" s="97"/>
       <c r="L19" s="90" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M19" s="97"/>
       <c r="N19" s="97"/>
@@ -14187,16 +14215,16 @@
       <c r="A20" s="83"/>
       <c r="B20" s="83"/>
       <c r="C20" s="83" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G20" s="83"/>
       <c r="H20" s="97"/>
@@ -14204,7 +14232,7 @@
       <c r="J20" s="83"/>
       <c r="K20" s="97"/>
       <c r="L20" s="90" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M20" s="97"/>
       <c r="N20" s="97"/>
@@ -14237,16 +14265,16 @@
       <c r="A21" s="83"/>
       <c r="B21" s="83"/>
       <c r="C21" s="83" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F21" s="83" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G21" s="83"/>
       <c r="H21" s="97"/>
@@ -14254,7 +14282,7 @@
       <c r="J21" s="83"/>
       <c r="K21" s="97"/>
       <c r="L21" s="90" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M21" s="97"/>
       <c r="N21" s="97"/>
@@ -14287,16 +14315,16 @@
       <c r="A22" s="83"/>
       <c r="B22" s="83"/>
       <c r="C22" s="83" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="97"/>
@@ -14304,7 +14332,7 @@
       <c r="J22" s="83"/>
       <c r="K22" s="97"/>
       <c r="L22" s="90" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M22" s="97"/>
       <c r="N22" s="97"/>
@@ -14337,16 +14365,16 @@
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
       <c r="C23" s="83" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E23" s="83" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G23" s="83"/>
       <c r="H23" s="97"/>
@@ -14354,7 +14382,7 @@
       <c r="J23" s="83"/>
       <c r="K23" s="97"/>
       <c r="L23" s="90" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M23" s="97"/>
       <c r="N23" s="97"/>
@@ -14387,16 +14415,16 @@
       <c r="A24" s="83"/>
       <c r="B24" s="83"/>
       <c r="C24" s="83" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E24" s="83" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G24" s="83"/>
       <c r="H24" s="98"/>
@@ -14404,7 +14432,7 @@
       <c r="J24" s="83"/>
       <c r="K24" s="97"/>
       <c r="L24" s="90" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
@@ -14437,16 +14465,16 @@
       <c r="A25" s="83"/>
       <c r="B25" s="83"/>
       <c r="C25" s="83" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E25" s="83" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G25" s="83"/>
       <c r="H25" s="98"/>
@@ -14454,7 +14482,7 @@
       <c r="J25" s="83"/>
       <c r="K25" s="97"/>
       <c r="L25" s="90" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M25" s="97"/>
       <c r="N25" s="97"/>
@@ -14487,16 +14515,16 @@
       <c r="A26" s="83"/>
       <c r="B26" s="83"/>
       <c r="C26" s="83" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="97"/>
@@ -14504,7 +14532,7 @@
       <c r="J26" s="83"/>
       <c r="K26" s="97"/>
       <c r="L26" s="90" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M26" s="97"/>
       <c r="N26" s="97"/>
@@ -14537,16 +14565,16 @@
       <c r="A27" s="83"/>
       <c r="B27" s="83"/>
       <c r="C27" s="83" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F27" s="83" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G27" s="83"/>
       <c r="H27" s="97"/>
@@ -14554,7 +14582,7 @@
       <c r="J27" s="83"/>
       <c r="K27" s="97"/>
       <c r="L27" s="90" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M27" s="97"/>
       <c r="N27" s="97"/>
@@ -14587,16 +14615,16 @@
       <c r="A28" s="83"/>
       <c r="B28" s="83"/>
       <c r="C28" s="83" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E28" s="83" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G28" s="83"/>
       <c r="H28" s="97"/>
@@ -14604,7 +14632,7 @@
       <c r="J28" s="83"/>
       <c r="K28" s="97"/>
       <c r="L28" s="90" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M28" s="97"/>
       <c r="N28" s="97"/>
@@ -14637,16 +14665,16 @@
       <c r="A29" s="83"/>
       <c r="B29" s="83"/>
       <c r="C29" s="83" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E29" s="83" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G29" s="83"/>
       <c r="H29" s="97"/>
@@ -14654,7 +14682,7 @@
       <c r="J29" s="83"/>
       <c r="K29" s="97"/>
       <c r="L29" s="90" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M29" s="97"/>
       <c r="N29" s="97"/>
@@ -14687,16 +14715,16 @@
       <c r="A30" s="83"/>
       <c r="B30" s="83"/>
       <c r="C30" s="83" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E30" s="83" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F30" s="83" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G30" s="83"/>
       <c r="H30" s="97"/>
@@ -14704,7 +14732,7 @@
       <c r="J30" s="83"/>
       <c r="K30" s="97"/>
       <c r="L30" s="90" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M30" s="97"/>
       <c r="N30" s="97"/>
@@ -14737,16 +14765,16 @@
       <c r="A31" s="83"/>
       <c r="B31" s="83"/>
       <c r="C31" s="83" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G31" s="83"/>
       <c r="H31" s="97"/>
@@ -14754,7 +14782,7 @@
       <c r="J31" s="83"/>
       <c r="K31" s="97"/>
       <c r="L31" s="90" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M31" s="97"/>
       <c r="N31" s="97"/>
@@ -14787,16 +14815,16 @@
       <c r="A32" s="83"/>
       <c r="B32" s="83"/>
       <c r="C32" s="83" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D32" s="83" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E32" s="83" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F32" s="83" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G32" s="83"/>
       <c r="H32" s="97"/>
@@ -14804,7 +14832,7 @@
       <c r="J32" s="83"/>
       <c r="K32" s="97"/>
       <c r="L32" s="90" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M32" s="97"/>
       <c r="N32" s="97"/>
@@ -14837,16 +14865,16 @@
       <c r="A33" s="83"/>
       <c r="B33" s="83"/>
       <c r="C33" s="83" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D33" s="83" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F33" s="83" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G33" s="83"/>
       <c r="H33" s="97"/>
@@ -14854,7 +14882,7 @@
       <c r="J33" s="83"/>
       <c r="K33" s="97"/>
       <c r="L33" s="90" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M33" s="97"/>
       <c r="N33" s="97"/>
@@ -14887,16 +14915,16 @@
       <c r="A34" s="83"/>
       <c r="B34" s="83"/>
       <c r="C34" s="83" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D34" s="83" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="97"/>
@@ -14904,7 +14932,7 @@
       <c r="J34" s="83"/>
       <c r="K34" s="97"/>
       <c r="L34" s="90" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M34" s="97"/>
       <c r="N34" s="97"/>
@@ -14937,16 +14965,16 @@
       <c r="A35" s="83"/>
       <c r="B35" s="83"/>
       <c r="C35" s="83" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F35" s="83" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G35" s="83"/>
       <c r="H35" s="97"/>
@@ -14954,7 +14982,7 @@
       <c r="J35" s="83"/>
       <c r="K35" s="97"/>
       <c r="L35" s="90" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M35" s="97"/>
       <c r="N35" s="97"/>
@@ -14987,16 +15015,16 @@
       <c r="A36" s="83"/>
       <c r="B36" s="83"/>
       <c r="C36" s="83" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E36" s="83" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F36" s="83" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G36" s="83"/>
       <c r="H36" s="97"/>
@@ -15004,7 +15032,7 @@
       <c r="J36" s="83"/>
       <c r="K36" s="97"/>
       <c r="L36" s="90" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="M36" s="97"/>
       <c r="N36" s="97"/>
@@ -15037,16 +15065,16 @@
       <c r="A37" s="83"/>
       <c r="B37" s="83"/>
       <c r="C37" s="83" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E37" s="83" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F37" s="83" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G37" s="83"/>
       <c r="H37" s="97"/>
@@ -15054,7 +15082,7 @@
       <c r="J37" s="83"/>
       <c r="K37" s="97"/>
       <c r="L37" s="90" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M37" s="97"/>
       <c r="N37" s="97"/>
@@ -15087,16 +15115,16 @@
       <c r="A38" s="83"/>
       <c r="B38" s="83"/>
       <c r="C38" s="83" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D38" s="83" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G38" s="83"/>
       <c r="H38" s="97"/>
@@ -15104,7 +15132,7 @@
       <c r="J38" s="83"/>
       <c r="K38" s="97"/>
       <c r="L38" s="90" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M38" s="97"/>
       <c r="N38" s="97"/>
@@ -15137,16 +15165,16 @@
       <c r="A39" s="83"/>
       <c r="B39" s="83"/>
       <c r="C39" s="83" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D39" s="83" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E39" s="83" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F39" s="83" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G39" s="83"/>
       <c r="H39" s="97"/>
@@ -15154,7 +15182,7 @@
       <c r="J39" s="83"/>
       <c r="K39" s="97"/>
       <c r="L39" s="90" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M39" s="97"/>
       <c r="N39" s="97"/>
@@ -15187,16 +15215,16 @@
       <c r="A40" s="83"/>
       <c r="B40" s="83"/>
       <c r="C40" s="83" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D40" s="83" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E40" s="83" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F40" s="83" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G40" s="83"/>
       <c r="H40" s="97"/>
@@ -15204,7 +15232,7 @@
       <c r="J40" s="83"/>
       <c r="K40" s="97"/>
       <c r="L40" s="90" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M40" s="97"/>
       <c r="N40" s="97"/>
@@ -15237,16 +15265,16 @@
       <c r="A41" s="83"/>
       <c r="B41" s="83"/>
       <c r="C41" s="83" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G41" s="83"/>
       <c r="H41" s="97"/>
@@ -15254,7 +15282,7 @@
       <c r="J41" s="83"/>
       <c r="K41" s="97"/>
       <c r="L41" s="90" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M41" s="97"/>
       <c r="N41" s="97"/>
@@ -15287,13 +15315,13 @@
       <c r="A42" s="83"/>
       <c r="B42" s="83"/>
       <c r="C42" s="83" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F42" s="83"/>
       <c r="G42" s="83"/>
@@ -15302,7 +15330,7 @@
       <c r="J42" s="83"/>
       <c r="K42" s="97"/>
       <c r="L42" s="90" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M42" s="97"/>
       <c r="N42" s="97"/>
@@ -15335,13 +15363,13 @@
       <c r="A43" s="83"/>
       <c r="B43" s="83"/>
       <c r="C43" s="83" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F43" s="83"/>
       <c r="G43" s="83"/>
@@ -15350,7 +15378,7 @@
       <c r="J43" s="83"/>
       <c r="K43" s="97"/>
       <c r="L43" s="90" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M43" s="97"/>
       <c r="N43" s="97"/>
@@ -15383,13 +15411,13 @@
       <c r="A44" s="83"/>
       <c r="B44" s="83"/>
       <c r="C44" s="83" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E44" s="83" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
@@ -15398,7 +15426,7 @@
       <c r="J44" s="83"/>
       <c r="K44" s="97"/>
       <c r="L44" s="90" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M44" s="97"/>
       <c r="N44" s="97"/>
@@ -15431,13 +15459,13 @@
       <c r="A45" s="83"/>
       <c r="B45" s="83"/>
       <c r="C45" s="83" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F45" s="83"/>
       <c r="G45" s="83"/>
@@ -15446,7 +15474,7 @@
       <c r="J45" s="83"/>
       <c r="K45" s="97"/>
       <c r="L45" s="90" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M45" s="97"/>
       <c r="N45" s="97"/>
@@ -15479,13 +15507,13 @@
       <c r="A46" s="83"/>
       <c r="B46" s="83"/>
       <c r="C46" s="83" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D46" s="83" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F46" s="83"/>
       <c r="G46" s="83"/>
@@ -15494,7 +15522,7 @@
       <c r="J46" s="83"/>
       <c r="K46" s="97"/>
       <c r="L46" s="90" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M46" s="97"/>
       <c r="N46" s="97"/>
@@ -15527,13 +15555,13 @@
       <c r="A47" s="83"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D47" s="83" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F47" s="83"/>
       <c r="G47" s="83"/>
@@ -15542,7 +15570,7 @@
       <c r="J47" s="83"/>
       <c r="K47" s="97"/>
       <c r="L47" s="90" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M47" s="97"/>
       <c r="N47" s="97"/>
@@ -15575,13 +15603,13 @@
       <c r="A48" s="83"/>
       <c r="B48" s="83"/>
       <c r="C48" s="83" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D48" s="83" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E48" s="83" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F48" s="83"/>
       <c r="G48" s="83"/>
@@ -15590,7 +15618,7 @@
       <c r="J48" s="83"/>
       <c r="K48" s="97"/>
       <c r="L48" s="90" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M48" s="97"/>
       <c r="N48" s="97"/>
@@ -15623,13 +15651,13 @@
       <c r="A49" s="83"/>
       <c r="B49" s="83"/>
       <c r="C49" s="83" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F49" s="83"/>
       <c r="G49" s="83"/>
@@ -15638,7 +15666,7 @@
       <c r="J49" s="83"/>
       <c r="K49" s="97"/>
       <c r="L49" s="90" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M49" s="97"/>
       <c r="N49" s="97"/>
@@ -15671,13 +15699,13 @@
       <c r="A50" s="83"/>
       <c r="B50" s="83"/>
       <c r="C50" s="83" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F50" s="83"/>
       <c r="G50" s="83"/>
@@ -15686,7 +15714,7 @@
       <c r="J50" s="83"/>
       <c r="K50" s="97"/>
       <c r="L50" s="90" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M50" s="97"/>
       <c r="N50" s="97"/>
@@ -15719,13 +15747,13 @@
       <c r="A51" s="83"/>
       <c r="B51" s="83"/>
       <c r="C51" s="83" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E51" s="83" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F51" s="83"/>
       <c r="G51" s="83"/>
@@ -15734,7 +15762,7 @@
       <c r="J51" s="83"/>
       <c r="K51" s="97"/>
       <c r="L51" s="90" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M51" s="97"/>
       <c r="N51" s="97"/>
@@ -15767,13 +15795,13 @@
       <c r="A52" s="83"/>
       <c r="B52" s="83"/>
       <c r="C52" s="83" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D52" s="83" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E52" s="83" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F52" s="83"/>
       <c r="G52" s="83"/>
@@ -15782,7 +15810,7 @@
       <c r="J52" s="83"/>
       <c r="K52" s="97"/>
       <c r="L52" s="90" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M52" s="97"/>
       <c r="N52" s="97"/>
@@ -15815,13 +15843,13 @@
       <c r="A53" s="83"/>
       <c r="B53" s="83"/>
       <c r="C53" s="83" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D53" s="83" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E53" s="83" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F53" s="83"/>
       <c r="G53" s="83"/>
@@ -15830,7 +15858,7 @@
       <c r="J53" s="83"/>
       <c r="K53" s="97"/>
       <c r="L53" s="90" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M53" s="97"/>
       <c r="N53" s="97"/>
@@ -15863,13 +15891,13 @@
       <c r="A54" s="83"/>
       <c r="B54" s="83"/>
       <c r="C54" s="83" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D54" s="83" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F54" s="83"/>
       <c r="G54" s="83"/>
@@ -15878,7 +15906,7 @@
       <c r="J54" s="83"/>
       <c r="K54" s="97"/>
       <c r="L54" s="90" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M54" s="97"/>
       <c r="N54" s="97"/>
@@ -15911,13 +15939,13 @@
       <c r="A55" s="83"/>
       <c r="B55" s="83"/>
       <c r="C55" s="83" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D55" s="83" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E55" s="83" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F55" s="83"/>
       <c r="G55" s="83"/>
@@ -15926,7 +15954,7 @@
       <c r="J55" s="83"/>
       <c r="K55" s="97"/>
       <c r="L55" s="90" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M55" s="97"/>
       <c r="N55" s="97"/>
@@ -15959,13 +15987,13 @@
       <c r="A56" s="83"/>
       <c r="B56" s="83"/>
       <c r="C56" s="83" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D56" s="83" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E56" s="83" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F56" s="83"/>
       <c r="G56" s="83"/>
@@ -15974,7 +16002,7 @@
       <c r="J56" s="83"/>
       <c r="K56" s="97"/>
       <c r="L56" s="90" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M56" s="97"/>
       <c r="N56" s="97"/>
@@ -16007,13 +16035,13 @@
       <c r="A57" s="83"/>
       <c r="B57" s="83"/>
       <c r="C57" s="83" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D57" s="83" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E57" s="83" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F57" s="83"/>
       <c r="G57" s="83"/>
@@ -16022,7 +16050,7 @@
       <c r="J57" s="83"/>
       <c r="K57" s="97"/>
       <c r="L57" s="90" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="M57" s="97"/>
       <c r="N57" s="97"/>
@@ -16055,13 +16083,13 @@
       <c r="A58" s="83"/>
       <c r="B58" s="83"/>
       <c r="C58" s="83" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D58" s="83" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F58" s="83"/>
       <c r="G58" s="83"/>
@@ -16070,7 +16098,7 @@
       <c r="J58" s="83"/>
       <c r="K58" s="97"/>
       <c r="L58" s="90" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="M58" s="97"/>
       <c r="N58" s="97"/>
@@ -16103,13 +16131,13 @@
       <c r="A59" s="83"/>
       <c r="B59" s="83"/>
       <c r="C59" s="83" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D59" s="83" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E59" s="83" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F59" s="83"/>
       <c r="G59" s="83"/>
@@ -16118,7 +16146,7 @@
       <c r="J59" s="83"/>
       <c r="K59" s="97"/>
       <c r="L59" s="90" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M59" s="97"/>
       <c r="N59" s="97"/>
@@ -16151,13 +16179,13 @@
       <c r="A60" s="83"/>
       <c r="B60" s="83"/>
       <c r="C60" s="83" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D60" s="83" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E60" s="83" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F60" s="83"/>
       <c r="G60" s="83"/>
@@ -16166,7 +16194,7 @@
       <c r="J60" s="83"/>
       <c r="K60" s="97"/>
       <c r="L60" s="90" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M60" s="97"/>
       <c r="N60" s="97"/>
@@ -16199,13 +16227,13 @@
       <c r="A61" s="83"/>
       <c r="B61" s="83"/>
       <c r="C61" s="83" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D61" s="83" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F61" s="83"/>
       <c r="G61" s="83"/>
@@ -16214,7 +16242,7 @@
       <c r="J61" s="83"/>
       <c r="K61" s="97"/>
       <c r="L61" s="90" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M61" s="97"/>
       <c r="N61" s="97"/>
@@ -16247,13 +16275,13 @@
       <c r="A62" s="83"/>
       <c r="B62" s="83"/>
       <c r="C62" s="83" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D62" s="83" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F62" s="83"/>
       <c r="G62" s="83"/>
@@ -16262,7 +16290,7 @@
       <c r="J62" s="83"/>
       <c r="K62" s="97"/>
       <c r="L62" s="90" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="M62" s="97"/>
       <c r="N62" s="97"/>
@@ -16295,13 +16323,13 @@
       <c r="A63" s="83"/>
       <c r="B63" s="83"/>
       <c r="C63" s="83" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D63" s="83" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E63" s="83" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F63" s="83"/>
       <c r="G63" s="83"/>
@@ -16310,7 +16338,7 @@
       <c r="J63" s="83"/>
       <c r="K63" s="97"/>
       <c r="L63" s="90" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M63" s="97"/>
       <c r="N63" s="97"/>
@@ -16343,13 +16371,13 @@
       <c r="A64" s="83"/>
       <c r="B64" s="83"/>
       <c r="C64" s="83" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D64" s="83" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E64" s="83" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F64" s="83"/>
       <c r="G64" s="83"/>
@@ -16389,13 +16417,13 @@
       <c r="A65" s="83"/>
       <c r="B65" s="83"/>
       <c r="C65" s="83" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D65" s="83" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E65" s="83" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F65" s="83"/>
       <c r="G65" s="83"/>
@@ -16435,13 +16463,13 @@
       <c r="A66" s="83"/>
       <c r="B66" s="83"/>
       <c r="C66" s="83" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D66" s="83" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E66" s="83" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F66" s="83"/>
       <c r="G66" s="83"/>
@@ -16481,13 +16509,13 @@
       <c r="A67" s="83"/>
       <c r="B67" s="83"/>
       <c r="C67" s="83" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D67" s="83" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E67" s="83" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F67" s="83"/>
       <c r="G67" s="83"/>
@@ -16527,13 +16555,13 @@
       <c r="A68" s="83"/>
       <c r="B68" s="83"/>
       <c r="C68" s="83" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D68" s="83" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E68" s="83" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F68" s="83"/>
       <c r="G68" s="83"/>
@@ -16573,13 +16601,13 @@
       <c r="A69" s="83"/>
       <c r="B69" s="83"/>
       <c r="C69" s="83" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D69" s="83" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E69" s="83" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F69" s="83"/>
       <c r="G69" s="83"/>
@@ -16619,13 +16647,13 @@
       <c r="A70" s="83"/>
       <c r="B70" s="83"/>
       <c r="C70" s="83" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D70" s="83" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E70" s="83" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F70" s="83"/>
       <c r="G70" s="83"/>
@@ -16665,13 +16693,13 @@
       <c r="A71" s="83"/>
       <c r="B71" s="83"/>
       <c r="C71" s="83" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D71" s="83" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E71" s="83" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="F71" s="83"/>
       <c r="G71" s="83"/>
@@ -16711,13 +16739,13 @@
       <c r="A72" s="83"/>
       <c r="B72" s="83"/>
       <c r="C72" s="83" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D72" s="83" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E72" s="83" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F72" s="83"/>
       <c r="G72" s="83"/>
@@ -16757,13 +16785,13 @@
       <c r="A73" s="83"/>
       <c r="B73" s="83"/>
       <c r="C73" s="83" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D73" s="83" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E73" s="83" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F73" s="83"/>
       <c r="G73" s="83"/>
@@ -16803,13 +16831,13 @@
       <c r="A74" s="83"/>
       <c r="B74" s="83"/>
       <c r="C74" s="83" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D74" s="83" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E74" s="83" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F74" s="83"/>
       <c r="G74" s="83"/>
@@ -16849,13 +16877,13 @@
       <c r="A75" s="83"/>
       <c r="B75" s="83"/>
       <c r="C75" s="83" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D75" s="83" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E75" s="83" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="F75" s="83"/>
       <c r="G75" s="83"/>
@@ -16895,13 +16923,13 @@
       <c r="A76" s="83"/>
       <c r="B76" s="83"/>
       <c r="C76" s="83" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D76" s="83" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E76" s="83" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F76" s="83"/>
       <c r="G76" s="83"/>
@@ -16941,13 +16969,13 @@
       <c r="A77" s="83"/>
       <c r="B77" s="83"/>
       <c r="C77" s="83" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D77" s="83" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E77" s="83" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F77" s="83"/>
       <c r="G77" s="83"/>
@@ -16987,13 +17015,13 @@
       <c r="A78" s="83"/>
       <c r="B78" s="83"/>
       <c r="C78" s="83" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D78" s="83" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="F78" s="83"/>
       <c r="G78" s="83"/>
@@ -17033,13 +17061,13 @@
       <c r="A79" s="83"/>
       <c r="B79" s="83"/>
       <c r="C79" s="83" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D79" s="83" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E79" s="83" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F79" s="83"/>
       <c r="G79" s="83"/>
@@ -17079,13 +17107,13 @@
       <c r="A80" s="83"/>
       <c r="B80" s="83"/>
       <c r="C80" s="83" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D80" s="83" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E80" s="83" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F80" s="83"/>
       <c r="G80" s="83"/>
@@ -17125,13 +17153,13 @@
       <c r="A81" s="83"/>
       <c r="B81" s="83"/>
       <c r="C81" s="83" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D81" s="83" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="83" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F81" s="83"/>
       <c r="G81" s="83"/>
@@ -17171,13 +17199,13 @@
       <c r="A82" s="83"/>
       <c r="B82" s="83"/>
       <c r="C82" s="83" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D82" s="83" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E82" s="83" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F82" s="83"/>
       <c r="G82" s="83"/>
@@ -17217,13 +17245,13 @@
       <c r="A83" s="83"/>
       <c r="B83" s="83"/>
       <c r="C83" s="83" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D83" s="83" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E83" s="83" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F83" s="83"/>
       <c r="G83" s="83"/>
@@ -17263,13 +17291,13 @@
       <c r="A84" s="83"/>
       <c r="B84" s="83"/>
       <c r="C84" s="83" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D84" s="83" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E84" s="83" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F84" s="83"/>
       <c r="G84" s="83"/>
@@ -17309,13 +17337,13 @@
       <c r="A85" s="83"/>
       <c r="B85" s="83"/>
       <c r="C85" s="83" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D85" s="83" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E85" s="83" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F85" s="83"/>
       <c r="G85" s="83"/>
@@ -17355,13 +17383,13 @@
       <c r="A86" s="83"/>
       <c r="B86" s="83"/>
       <c r="C86" s="83" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D86" s="83" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E86" s="83" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F86" s="83"/>
       <c r="G86" s="83"/>
@@ -17401,13 +17429,13 @@
       <c r="A87" s="83"/>
       <c r="B87" s="83"/>
       <c r="C87" s="83" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D87" s="83" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E87" s="83" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F87" s="83"/>
       <c r="G87" s="83"/>
@@ -17447,13 +17475,13 @@
       <c r="A88" s="83"/>
       <c r="B88" s="83"/>
       <c r="C88" s="83" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D88" s="83" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E88" s="83" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F88" s="83"/>
       <c r="G88" s="83"/>
@@ -17493,13 +17521,13 @@
       <c r="A89" s="83"/>
       <c r="B89" s="83"/>
       <c r="C89" s="83" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D89" s="83" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E89" s="83" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F89" s="83"/>
       <c r="G89" s="83"/>
@@ -17539,13 +17567,13 @@
       <c r="A90" s="83"/>
       <c r="B90" s="83"/>
       <c r="C90" s="83" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D90" s="83" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E90" s="83" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F90" s="83"/>
       <c r="G90" s="83"/>
@@ -17585,13 +17613,13 @@
       <c r="A91" s="83"/>
       <c r="B91" s="83"/>
       <c r="C91" s="83" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D91" s="83" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E91" s="83" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="F91" s="83"/>
       <c r="G91" s="83"/>
@@ -17631,13 +17659,13 @@
       <c r="A92" s="83"/>
       <c r="B92" s="83"/>
       <c r="C92" s="83" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D92" s="83" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E92" s="83" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F92" s="83"/>
       <c r="G92" s="83"/>
@@ -17677,13 +17705,13 @@
       <c r="A93" s="83"/>
       <c r="B93" s="83"/>
       <c r="C93" s="83" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D93" s="83" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E93" s="83" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F93" s="83"/>
       <c r="G93" s="83"/>
@@ -17723,13 +17751,13 @@
       <c r="A94" s="83"/>
       <c r="B94" s="83"/>
       <c r="C94" s="83" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D94" s="83" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E94" s="83" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F94" s="83"/>
       <c r="G94" s="83"/>
@@ -17769,13 +17797,13 @@
       <c r="A95" s="83"/>
       <c r="B95" s="83"/>
       <c r="C95" s="83" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D95" s="83" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E95" s="83" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F95" s="83"/>
       <c r="G95" s="83"/>
@@ -17815,13 +17843,13 @@
       <c r="A96" s="83"/>
       <c r="B96" s="83"/>
       <c r="C96" s="83" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D96" s="83" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E96" s="83" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="F96" s="83"/>
       <c r="G96" s="83"/>
@@ -17861,13 +17889,13 @@
       <c r="A97" s="83"/>
       <c r="B97" s="83"/>
       <c r="C97" s="83" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D97" s="83" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E97" s="83" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F97" s="83"/>
       <c r="G97" s="83"/>
@@ -17907,13 +17935,13 @@
       <c r="A98" s="83"/>
       <c r="B98" s="83"/>
       <c r="C98" s="83" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D98" s="83" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E98" s="83" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F98" s="83"/>
       <c r="G98" s="83"/>
@@ -17953,13 +17981,13 @@
       <c r="A99" s="83"/>
       <c r="B99" s="83"/>
       <c r="C99" s="83" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D99" s="83" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E99" s="83" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F99" s="83"/>
       <c r="G99" s="83"/>
@@ -17999,13 +18027,13 @@
       <c r="A100" s="83"/>
       <c r="B100" s="83"/>
       <c r="C100" s="83" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D100" s="83" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E100" s="83" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F100" s="83"/>
       <c r="G100" s="83"/>
@@ -18045,13 +18073,13 @@
       <c r="A101" s="83"/>
       <c r="B101" s="83"/>
       <c r="C101" s="83" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D101" s="83" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E101" s="83" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F101" s="83"/>
       <c r="G101" s="83"/>
@@ -18091,13 +18119,13 @@
       <c r="A102" s="83"/>
       <c r="B102" s="83"/>
       <c r="C102" s="83" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D102" s="83" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E102" s="83" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F102" s="83"/>
       <c r="G102" s="83"/>
@@ -18137,13 +18165,13 @@
       <c r="A103" s="83"/>
       <c r="B103" s="83"/>
       <c r="C103" s="83" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D103" s="83" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E103" s="83" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F103" s="83"/>
       <c r="G103" s="83"/>
@@ -18183,13 +18211,13 @@
       <c r="A104" s="83"/>
       <c r="B104" s="83"/>
       <c r="C104" s="83" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D104" s="83" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E104" s="83" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F104" s="83"/>
       <c r="G104" s="83"/>
@@ -18229,13 +18257,13 @@
       <c r="A105" s="83"/>
       <c r="B105" s="83"/>
       <c r="C105" s="83" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D105" s="83" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E105" s="83" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F105" s="83"/>
       <c r="G105" s="83"/>
@@ -18275,13 +18303,13 @@
       <c r="A106" s="83"/>
       <c r="B106" s="83"/>
       <c r="C106" s="83" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D106" s="83" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E106" s="83" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="F106" s="83"/>
       <c r="G106" s="83"/>
@@ -18321,13 +18349,13 @@
       <c r="A107" s="83"/>
       <c r="B107" s="83"/>
       <c r="C107" s="83" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D107" s="83" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E107" s="83" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F107" s="83"/>
       <c r="G107" s="83"/>
@@ -18367,13 +18395,13 @@
       <c r="A108" s="83"/>
       <c r="B108" s="83"/>
       <c r="C108" s="83" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D108" s="83" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E108" s="83" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="F108" s="83"/>
       <c r="G108" s="83"/>
@@ -18413,13 +18441,13 @@
       <c r="A109" s="83"/>
       <c r="B109" s="83"/>
       <c r="C109" s="83" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D109" s="83" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E109" s="83" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="F109" s="83"/>
       <c r="G109" s="83"/>
@@ -18459,13 +18487,13 @@
       <c r="A110" s="83"/>
       <c r="B110" s="83"/>
       <c r="C110" s="83" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D110" s="83" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="F110" s="83"/>
       <c r="G110" s="83"/>
@@ -18505,13 +18533,13 @@
       <c r="A111" s="83"/>
       <c r="B111" s="83"/>
       <c r="C111" s="83" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D111" s="83" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E111" s="83" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F111" s="83"/>
       <c r="G111" s="83"/>
@@ -18551,13 +18579,13 @@
       <c r="A112" s="83"/>
       <c r="B112" s="83"/>
       <c r="C112" s="83" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D112" s="83" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E112" s="83" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F112" s="83"/>
       <c r="G112" s="83"/>
@@ -18597,13 +18625,13 @@
       <c r="A113" s="83"/>
       <c r="B113" s="83"/>
       <c r="C113" s="83" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D113" s="83" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E113" s="83" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F113" s="83"/>
       <c r="G113" s="83"/>
@@ -18643,13 +18671,13 @@
       <c r="A114" s="83"/>
       <c r="B114" s="83"/>
       <c r="C114" s="83" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D114" s="83" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E114" s="83" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F114" s="83"/>
       <c r="G114" s="83"/>
@@ -18689,13 +18717,13 @@
       <c r="A115" s="83"/>
       <c r="B115" s="83"/>
       <c r="C115" s="83" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D115" s="83" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E115" s="83" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="F115" s="83"/>
       <c r="G115" s="83"/>
@@ -18735,13 +18763,13 @@
       <c r="A116" s="83"/>
       <c r="B116" s="83"/>
       <c r="C116" s="83" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D116" s="83" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E116" s="83" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="F116" s="83"/>
       <c r="G116" s="83"/>
@@ -18781,13 +18809,13 @@
       <c r="A117" s="83"/>
       <c r="B117" s="83"/>
       <c r="C117" s="83" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D117" s="83" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E117" s="83" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F117" s="83"/>
       <c r="G117" s="83"/>
@@ -18827,13 +18855,13 @@
       <c r="A118" s="83"/>
       <c r="B118" s="83"/>
       <c r="C118" s="83" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D118" s="83" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E118" s="83" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F118" s="83"/>
       <c r="G118" s="83"/>
@@ -18873,13 +18901,13 @@
       <c r="A119" s="83"/>
       <c r="B119" s="83"/>
       <c r="C119" s="83" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D119" s="83" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E119" s="83" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F119" s="83"/>
       <c r="G119" s="83"/>
@@ -18919,13 +18947,13 @@
       <c r="A120" s="83"/>
       <c r="B120" s="83"/>
       <c r="C120" s="83" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D120" s="83" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E120" s="83" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F120" s="83"/>
       <c r="G120" s="83"/>
@@ -18965,13 +18993,13 @@
       <c r="A121" s="83"/>
       <c r="B121" s="83"/>
       <c r="C121" s="83" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D121" s="83" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E121" s="83" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F121" s="83"/>
       <c r="G121" s="83"/>
@@ -19011,13 +19039,13 @@
       <c r="A122" s="83"/>
       <c r="B122" s="83"/>
       <c r="C122" s="83" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D122" s="83" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E122" s="83" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F122" s="83"/>
       <c r="G122" s="83"/>
@@ -19057,13 +19085,13 @@
       <c r="A123" s="83"/>
       <c r="B123" s="83"/>
       <c r="C123" s="83" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D123" s="83" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E123" s="83" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F123" s="83"/>
       <c r="G123" s="83"/>
@@ -19103,13 +19131,13 @@
       <c r="A124" s="83"/>
       <c r="B124" s="83"/>
       <c r="C124" s="83" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D124" s="83" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E124" s="83" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F124" s="83"/>
       <c r="G124" s="83"/>
@@ -19149,13 +19177,13 @@
       <c r="A125" s="83"/>
       <c r="B125" s="83"/>
       <c r="C125" s="83" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D125" s="83" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E125" s="83" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F125" s="83"/>
       <c r="G125" s="83"/>
@@ -19195,13 +19223,13 @@
       <c r="A126" s="83"/>
       <c r="B126" s="83"/>
       <c r="C126" s="83" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D126" s="83" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E126" s="83" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="F126" s="83"/>
       <c r="G126" s="83"/>
@@ -19241,13 +19269,13 @@
       <c r="A127" s="83"/>
       <c r="B127" s="83"/>
       <c r="C127" s="83" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D127" s="83" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E127" s="83" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F127" s="83"/>
       <c r="G127" s="83"/>
@@ -19287,13 +19315,13 @@
       <c r="A128" s="83"/>
       <c r="B128" s="83"/>
       <c r="C128" s="83" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D128" s="83" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E128" s="83" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F128" s="83"/>
       <c r="G128" s="83"/>
@@ -19333,13 +19361,13 @@
       <c r="A129" s="83"/>
       <c r="B129" s="83"/>
       <c r="C129" s="83" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D129" s="83" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E129" s="83" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="F129" s="83"/>
       <c r="G129" s="83"/>
@@ -19379,13 +19407,13 @@
       <c r="A130" s="83"/>
       <c r="B130" s="83"/>
       <c r="C130" s="83" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D130" s="83" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E130" s="83" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F130" s="83"/>
       <c r="G130" s="83"/>
@@ -19425,13 +19453,13 @@
       <c r="A131" s="83"/>
       <c r="B131" s="83"/>
       <c r="C131" s="83" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D131" s="83" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E131" s="83" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="F131" s="83"/>
       <c r="G131" s="83"/>
@@ -19471,13 +19499,13 @@
       <c r="A132" s="83"/>
       <c r="B132" s="83"/>
       <c r="C132" s="83" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D132" s="83" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E132" s="83" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F132" s="83"/>
       <c r="G132" s="83"/>
@@ -19517,13 +19545,13 @@
       <c r="A133" s="83"/>
       <c r="B133" s="83"/>
       <c r="C133" s="83" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D133" s="83" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E133" s="83" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="F133" s="83"/>
       <c r="G133" s="83"/>
@@ -19563,13 +19591,13 @@
       <c r="A134" s="83"/>
       <c r="B134" s="83"/>
       <c r="C134" s="83" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D134" s="83" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E134" s="83" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="F134" s="83"/>
       <c r="G134" s="83"/>
@@ -19609,13 +19637,13 @@
       <c r="A135" s="83"/>
       <c r="B135" s="83"/>
       <c r="C135" s="83" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D135" s="83" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E135" s="83" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F135" s="83"/>
       <c r="G135" s="83"/>
@@ -19655,13 +19683,13 @@
       <c r="A136" s="83"/>
       <c r="B136" s="83"/>
       <c r="C136" s="83" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D136" s="83" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E136" s="83" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F136" s="83"/>
       <c r="G136" s="83"/>
@@ -19701,13 +19729,13 @@
       <c r="A137" s="83"/>
       <c r="B137" s="83"/>
       <c r="C137" s="83" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D137" s="83" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E137" s="83" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F137" s="83"/>
       <c r="G137" s="83"/>
@@ -19747,13 +19775,13 @@
       <c r="A138" s="83"/>
       <c r="B138" s="83"/>
       <c r="C138" s="83" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D138" s="83" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E138" s="83" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F138" s="83"/>
       <c r="G138" s="83"/>
@@ -19793,13 +19821,13 @@
       <c r="A139" s="83"/>
       <c r="B139" s="83"/>
       <c r="C139" s="83" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D139" s="83" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E139" s="83" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
@@ -19839,13 +19867,13 @@
       <c r="A140" s="83"/>
       <c r="B140" s="83"/>
       <c r="C140" s="83" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D140" s="83" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E140" s="83" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F140" s="83"/>
       <c r="G140" s="83"/>
@@ -19885,13 +19913,13 @@
       <c r="A141" s="83"/>
       <c r="B141" s="83"/>
       <c r="C141" s="83" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D141" s="83" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E141" s="83" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F141" s="83"/>
       <c r="G141" s="83"/>
@@ -19931,13 +19959,13 @@
       <c r="A142" s="83"/>
       <c r="B142" s="83"/>
       <c r="C142" s="83" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D142" s="83" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E142" s="83" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F142" s="83"/>
       <c r="G142" s="83"/>
@@ -19977,13 +20005,13 @@
       <c r="A143" s="83"/>
       <c r="B143" s="83"/>
       <c r="C143" s="83" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D143" s="83" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E143" s="83" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="F143" s="83"/>
       <c r="G143" s="83"/>
@@ -20023,13 +20051,13 @@
       <c r="A144" s="83"/>
       <c r="B144" s="83"/>
       <c r="C144" s="83" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D144" s="83" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E144" s="83" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F144" s="83"/>
       <c r="G144" s="83"/>
@@ -20069,13 +20097,13 @@
       <c r="A145" s="83"/>
       <c r="B145" s="83"/>
       <c r="C145" s="83" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D145" s="83" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E145" s="83" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="F145" s="83"/>
       <c r="G145" s="83"/>
@@ -20115,13 +20143,13 @@
       <c r="A146" s="83"/>
       <c r="B146" s="83"/>
       <c r="C146" s="83" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D146" s="83" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E146" s="83" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F146" s="83"/>
       <c r="G146" s="83"/>
@@ -20161,13 +20189,13 @@
       <c r="A147" s="83"/>
       <c r="B147" s="83"/>
       <c r="C147" s="83" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D147" s="83" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E147" s="83" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F147" s="83"/>
       <c r="G147" s="83"/>
@@ -20207,13 +20235,13 @@
       <c r="A148" s="83"/>
       <c r="B148" s="83"/>
       <c r="C148" s="83" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D148" s="83" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E148" s="83" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="F148" s="83"/>
       <c r="G148" s="83"/>
@@ -20253,13 +20281,13 @@
       <c r="A149" s="83"/>
       <c r="B149" s="83"/>
       <c r="C149" s="83" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D149" s="83" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E149" s="83" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F149" s="83"/>
       <c r="G149" s="83"/>
@@ -20299,13 +20327,13 @@
       <c r="A150" s="83"/>
       <c r="B150" s="83"/>
       <c r="C150" s="83" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D150" s="83" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E150" s="83" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="F150" s="83"/>
       <c r="G150" s="83"/>
@@ -20345,13 +20373,13 @@
       <c r="A151" s="83"/>
       <c r="B151" s="83"/>
       <c r="C151" s="83" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D151" s="83" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E151" s="83" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F151" s="83"/>
       <c r="G151" s="83"/>
@@ -20391,13 +20419,13 @@
       <c r="A152" s="83"/>
       <c r="B152" s="83"/>
       <c r="C152" s="83" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D152" s="83" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E152" s="83" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F152" s="83"/>
       <c r="G152" s="83"/>
@@ -20437,13 +20465,13 @@
       <c r="A153" s="83"/>
       <c r="B153" s="83"/>
       <c r="C153" s="83" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D153" s="83" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E153" s="83" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="F153" s="83"/>
       <c r="G153" s="83"/>
@@ -20483,13 +20511,13 @@
       <c r="A154" s="83"/>
       <c r="B154" s="83"/>
       <c r="C154" s="83" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D154" s="83" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E154" s="83" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F154" s="83"/>
       <c r="G154" s="83"/>
@@ -20529,13 +20557,13 @@
       <c r="A155" s="83"/>
       <c r="B155" s="83"/>
       <c r="C155" s="83" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D155" s="83" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E155" s="83" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="F155" s="83"/>
       <c r="G155" s="83"/>
@@ -20575,13 +20603,13 @@
       <c r="A156" s="83"/>
       <c r="B156" s="83"/>
       <c r="C156" s="83" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D156" s="83" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E156" s="83" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F156" s="83"/>
       <c r="G156" s="83"/>
@@ -20621,13 +20649,13 @@
       <c r="A157" s="83"/>
       <c r="B157" s="83"/>
       <c r="C157" s="83" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D157" s="83" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E157" s="83" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F157" s="83"/>
       <c r="G157" s="83"/>
@@ -20667,13 +20695,13 @@
       <c r="A158" s="83"/>
       <c r="B158" s="83"/>
       <c r="C158" s="83" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D158" s="83" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E158" s="83" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="F158" s="83"/>
       <c r="G158" s="83"/>
@@ -20713,13 +20741,13 @@
       <c r="A159" s="83"/>
       <c r="B159" s="83"/>
       <c r="C159" s="83" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D159" s="83" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E159" s="83" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="F159" s="83"/>
       <c r="G159" s="83"/>
@@ -20759,13 +20787,13 @@
       <c r="A160" s="83"/>
       <c r="B160" s="83"/>
       <c r="C160" s="83" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D160" s="83" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E160" s="83" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="F160" s="83"/>
       <c r="G160" s="83"/>
@@ -20805,13 +20833,13 @@
       <c r="A161" s="83"/>
       <c r="B161" s="83"/>
       <c r="C161" s="83" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D161" s="83" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E161" s="83" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F161" s="83"/>
       <c r="G161" s="83"/>
@@ -20851,13 +20879,13 @@
       <c r="A162" s="83"/>
       <c r="B162" s="83"/>
       <c r="C162" s="83" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D162" s="83" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E162" s="83" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F162" s="83"/>
       <c r="G162" s="83"/>
@@ -20897,13 +20925,13 @@
       <c r="A163" s="83"/>
       <c r="B163" s="83"/>
       <c r="C163" s="83" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D163" s="83" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E163" s="83" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="F163" s="83"/>
       <c r="G163" s="83"/>
@@ -20943,13 +20971,13 @@
       <c r="A164" s="83"/>
       <c r="B164" s="83"/>
       <c r="C164" s="83" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D164" s="83" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="E164" s="83" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F164" s="83"/>
       <c r="G164" s="83"/>
@@ -20989,13 +21017,13 @@
       <c r="A165" s="83"/>
       <c r="B165" s="83"/>
       <c r="C165" s="83" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D165" s="83" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E165" s="83" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F165" s="83"/>
       <c r="G165" s="83"/>
@@ -21035,13 +21063,13 @@
       <c r="A166" s="83"/>
       <c r="B166" s="83"/>
       <c r="C166" s="83" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D166" s="83" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="E166" s="83" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="F166" s="83"/>
       <c r="G166" s="83"/>
@@ -21081,13 +21109,13 @@
       <c r="A167" s="83"/>
       <c r="B167" s="83"/>
       <c r="C167" s="83" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D167" s="83" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E167" s="83" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="F167" s="83"/>
       <c r="G167" s="83"/>
@@ -21127,13 +21155,13 @@
       <c r="A168" s="83"/>
       <c r="B168" s="83"/>
       <c r="C168" s="83" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D168" s="83" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E168" s="83" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="F168" s="83"/>
       <c r="G168" s="83"/>
@@ -21173,13 +21201,13 @@
       <c r="A169" s="83"/>
       <c r="B169" s="83"/>
       <c r="C169" s="83" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D169" s="83" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="E169" s="83" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="F169" s="83"/>
       <c r="G169" s="83"/>
@@ -21219,13 +21247,13 @@
       <c r="A170" s="83"/>
       <c r="B170" s="83"/>
       <c r="C170" s="83" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D170" s="83" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E170" s="83" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F170" s="83"/>
       <c r="G170" s="83"/>
@@ -21265,13 +21293,13 @@
       <c r="A171" s="83"/>
       <c r="B171" s="83"/>
       <c r="C171" s="83" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D171" s="83" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E171" s="83" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="F171" s="83"/>
       <c r="G171" s="83"/>
@@ -21311,13 +21339,13 @@
       <c r="A172" s="83"/>
       <c r="B172" s="83"/>
       <c r="C172" s="83" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D172" s="83" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E172" s="83" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="F172" s="83"/>
       <c r="G172" s="83"/>
@@ -21357,13 +21385,13 @@
       <c r="A173" s="83"/>
       <c r="B173" s="83"/>
       <c r="C173" s="83" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D173" s="83" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E173" s="83" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="F173" s="83"/>
       <c r="G173" s="83"/>
@@ -21403,13 +21431,13 @@
       <c r="A174" s="83"/>
       <c r="B174" s="83"/>
       <c r="C174" s="83" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D174" s="83" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E174" s="83" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F174" s="83"/>
       <c r="G174" s="83"/>
@@ -21449,13 +21477,13 @@
       <c r="A175" s="83"/>
       <c r="B175" s="83"/>
       <c r="C175" s="83" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D175" s="83" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E175" s="83" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="F175" s="83"/>
       <c r="G175" s="83"/>
@@ -21495,13 +21523,13 @@
       <c r="A176" s="83"/>
       <c r="B176" s="83"/>
       <c r="C176" s="83" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D176" s="83" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E176" s="83" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="F176" s="83"/>
       <c r="G176" s="83"/>
@@ -21541,13 +21569,13 @@
       <c r="A177" s="83"/>
       <c r="B177" s="83"/>
       <c r="C177" s="83" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D177" s="83" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E177" s="83" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
@@ -21587,13 +21615,13 @@
       <c r="A178" s="83"/>
       <c r="B178" s="83"/>
       <c r="C178" s="83" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D178" s="83" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E178" s="83" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
@@ -21633,13 +21661,13 @@
       <c r="A179" s="83"/>
       <c r="B179" s="83"/>
       <c r="C179" s="83" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D179" s="83" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E179" s="83" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
@@ -21679,10 +21707,10 @@
       <c r="A180" s="83"/>
       <c r="B180" s="83"/>
       <c r="C180" s="83" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D180" s="83" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E180" s="83"/>
       <c r="F180" s="83"/>
@@ -21723,10 +21751,10 @@
       <c r="A181" s="83"/>
       <c r="B181" s="83"/>
       <c r="C181" s="83" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D181" s="83" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E181" s="83"/>
       <c r="F181" s="83"/>
@@ -21767,10 +21795,10 @@
       <c r="A182" s="83"/>
       <c r="B182" s="83"/>
       <c r="C182" s="83" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D182" s="83" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E182" s="83"/>
       <c r="F182" s="83"/>
@@ -21811,10 +21839,10 @@
       <c r="A183" s="83"/>
       <c r="B183" s="83"/>
       <c r="C183" s="83" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D183" s="83" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E183" s="83"/>
       <c r="F183" s="83"/>
@@ -21855,10 +21883,10 @@
       <c r="A184" s="83"/>
       <c r="B184" s="83"/>
       <c r="C184" s="83" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D184" s="83" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="E184" s="83"/>
       <c r="F184" s="83"/>
@@ -21899,10 +21927,10 @@
       <c r="A185" s="83"/>
       <c r="B185" s="83"/>
       <c r="C185" s="83" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D185" s="83" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E185" s="83"/>
       <c r="F185" s="83"/>
@@ -21943,10 +21971,10 @@
       <c r="A186" s="83"/>
       <c r="B186" s="83"/>
       <c r="C186" s="83" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D186" s="83" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E186" s="83"/>
       <c r="F186" s="83"/>
@@ -21987,10 +22015,10 @@
       <c r="A187" s="83"/>
       <c r="B187" s="83"/>
       <c r="C187" s="83" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D187" s="83" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E187" s="83"/>
       <c r="F187" s="83"/>
@@ -22031,10 +22059,10 @@
       <c r="A188" s="83"/>
       <c r="B188" s="83"/>
       <c r="C188" s="83" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D188" s="83" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E188" s="83"/>
       <c r="F188" s="83"/>
@@ -22075,10 +22103,10 @@
       <c r="A189" s="83"/>
       <c r="B189" s="83"/>
       <c r="C189" s="83" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D189" s="83" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E189" s="83"/>
       <c r="F189" s="83"/>
@@ -22119,10 +22147,10 @@
       <c r="A190" s="83"/>
       <c r="B190" s="83"/>
       <c r="C190" s="83" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D190" s="83" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E190" s="83"/>
       <c r="F190" s="83"/>
@@ -22163,10 +22191,10 @@
       <c r="A191" s="83"/>
       <c r="B191" s="83"/>
       <c r="C191" s="83" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D191" s="83" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E191" s="83"/>
       <c r="F191" s="83"/>
@@ -22207,10 +22235,10 @@
       <c r="A192" s="83"/>
       <c r="B192" s="83"/>
       <c r="C192" s="83" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D192" s="83" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E192" s="83"/>
       <c r="F192" s="83"/>
@@ -22251,10 +22279,10 @@
       <c r="A193" s="83"/>
       <c r="B193" s="83"/>
       <c r="C193" s="83" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D193" s="83" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E193" s="83"/>
       <c r="F193" s="83"/>
@@ -22295,10 +22323,10 @@
       <c r="A194" s="83"/>
       <c r="B194" s="83"/>
       <c r="C194" s="83" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D194" s="83" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E194" s="83"/>
       <c r="F194" s="83"/>
@@ -22339,10 +22367,10 @@
       <c r="A195" s="83"/>
       <c r="B195" s="83"/>
       <c r="C195" s="83" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D195" s="83" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E195" s="83"/>
       <c r="F195" s="83"/>
@@ -22383,10 +22411,10 @@
       <c r="A196" s="83"/>
       <c r="B196" s="83"/>
       <c r="C196" s="83" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D196" s="83" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="E196" s="83"/>
       <c r="F196" s="83"/>
@@ -22427,10 +22455,10 @@
       <c r="A197" s="83"/>
       <c r="B197" s="83"/>
       <c r="C197" s="83" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D197" s="83" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E197" s="83"/>
       <c r="F197" s="83"/>
@@ -22471,10 +22499,10 @@
       <c r="A198" s="83"/>
       <c r="B198" s="83"/>
       <c r="C198" s="83" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D198" s="83" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E198" s="83"/>
       <c r="F198" s="83"/>
@@ -22515,10 +22543,10 @@
       <c r="A199" s="83"/>
       <c r="B199" s="83"/>
       <c r="C199" s="83" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D199" s="83" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E199" s="83"/>
       <c r="F199" s="83"/>
@@ -22559,10 +22587,10 @@
       <c r="A200" s="83"/>
       <c r="B200" s="83"/>
       <c r="C200" s="83" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D200" s="83" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E200" s="83"/>
       <c r="F200" s="83"/>
@@ -22603,10 +22631,10 @@
       <c r="A201" s="83"/>
       <c r="B201" s="83"/>
       <c r="C201" s="83" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D201" s="83" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E201" s="83"/>
       <c r="F201" s="83"/>
@@ -22647,10 +22675,10 @@
       <c r="A202" s="83"/>
       <c r="B202" s="83"/>
       <c r="C202" s="83" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D202" s="83" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E202" s="83"/>
       <c r="F202" s="83"/>
@@ -22691,10 +22719,10 @@
       <c r="A203" s="83"/>
       <c r="B203" s="83"/>
       <c r="C203" s="83" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D203" s="83" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E203" s="83"/>
       <c r="F203" s="83"/>
@@ -22735,10 +22763,10 @@
       <c r="A204" s="83"/>
       <c r="B204" s="83"/>
       <c r="C204" s="83" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D204" s="83" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E204" s="83"/>
       <c r="F204" s="83"/>
@@ -22779,10 +22807,10 @@
       <c r="A205" s="83"/>
       <c r="B205" s="83"/>
       <c r="C205" s="83" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D205" s="83" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E205" s="83"/>
       <c r="F205" s="83"/>
@@ -22823,10 +22851,10 @@
       <c r="A206" s="83"/>
       <c r="B206" s="83"/>
       <c r="C206" s="83" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D206" s="83" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E206" s="83"/>
       <c r="F206" s="83"/>
@@ -22867,10 +22895,10 @@
       <c r="A207" s="83"/>
       <c r="B207" s="83"/>
       <c r="C207" s="83" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D207" s="83" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E207" s="83"/>
       <c r="F207" s="83"/>
@@ -22911,10 +22939,10 @@
       <c r="A208" s="83"/>
       <c r="B208" s="83"/>
       <c r="C208" s="83" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D208" s="83" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E208" s="83"/>
       <c r="F208" s="83"/>
@@ -22955,10 +22983,10 @@
       <c r="A209" s="83"/>
       <c r="B209" s="83"/>
       <c r="C209" s="83" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D209" s="83" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E209" s="83"/>
       <c r="F209" s="83"/>
@@ -22999,10 +23027,10 @@
       <c r="A210" s="83"/>
       <c r="B210" s="83"/>
       <c r="C210" s="83" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D210" s="83" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E210" s="83"/>
       <c r="F210" s="83"/>
@@ -23043,10 +23071,10 @@
       <c r="A211" s="83"/>
       <c r="B211" s="83"/>
       <c r="C211" s="83" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D211" s="83" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E211" s="83"/>
       <c r="F211" s="83"/>
@@ -23087,10 +23115,10 @@
       <c r="A212" s="83"/>
       <c r="B212" s="83"/>
       <c r="C212" s="83" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D212" s="83" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E212" s="83"/>
       <c r="F212" s="83"/>
@@ -23131,10 +23159,10 @@
       <c r="A213" s="83"/>
       <c r="B213" s="83"/>
       <c r="C213" s="83" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D213" s="83" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="E213" s="83"/>
       <c r="F213" s="83"/>
@@ -23175,10 +23203,10 @@
       <c r="A214" s="83"/>
       <c r="B214" s="83"/>
       <c r="C214" s="83" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D214" s="83" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E214" s="83"/>
       <c r="F214" s="83"/>
@@ -23219,10 +23247,10 @@
       <c r="A215" s="83"/>
       <c r="B215" s="83"/>
       <c r="C215" s="83" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D215" s="83" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="E215" s="83"/>
       <c r="F215" s="83"/>
@@ -23263,10 +23291,10 @@
       <c r="A216" s="83"/>
       <c r="B216" s="83"/>
       <c r="C216" s="83" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D216" s="83" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E216" s="83"/>
       <c r="F216" s="83"/>
@@ -23307,10 +23335,10 @@
       <c r="A217" s="83"/>
       <c r="B217" s="83"/>
       <c r="C217" s="83" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D217" s="83" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="E217" s="83"/>
       <c r="F217" s="83"/>
@@ -23351,10 +23379,10 @@
       <c r="A218" s="83"/>
       <c r="B218" s="83"/>
       <c r="C218" s="83" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D218" s="83" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E218" s="83"/>
       <c r="F218" s="83"/>
@@ -23395,10 +23423,10 @@
       <c r="A219" s="83"/>
       <c r="B219" s="83"/>
       <c r="C219" s="83" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D219" s="83" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E219" s="83"/>
       <c r="F219" s="83"/>
@@ -23439,10 +23467,10 @@
       <c r="A220" s="83"/>
       <c r="B220" s="83"/>
       <c r="C220" s="83" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D220" s="83" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="E220" s="83"/>
       <c r="F220" s="83"/>
